--- a/Modular.xlsx
+++ b/Modular.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Sl No#</t>
   </si>
@@ -163,6 +163,81 @@
   </si>
   <si>
     <t>D:/Sri harsha/My Projects/GMTI/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Fri_Oct_11_20.53.02_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.06.49_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.06.49_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.06.49_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/USA Today Automation TestCases/NHL/TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.09.41_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.09.41_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.09.41_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.17.14_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.17.14_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.17.14_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.39.13_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.39.13_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.39.13_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.41.42_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.41.42_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.41.42_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.42.16_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.42.16_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.42.16_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.43.42_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.43.42_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.43.42_IST_2013/NHL_Test_Results/</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.57.19_IST_2013/</t>
+  </si>
+  <si>
+    <t>D://Sports Automation//USATODAY_Sports_Automation//Automation_Test_Results//Test_Results_Sun_Oct_13_16.57.19_IST_2013//</t>
+  </si>
+  <si>
+    <t>D:/Sports Automation/USATODAY_Sports_Automation/Automation_Test_Results/Test_Results_Sun_Oct_13_16.57.19_IST_2013/NHL_Test_Results/</t>
   </si>
 </sst>
 </file>
@@ -664,10 +739,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,12 +1034,12 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
